--- a/data/pca/factorExposure/factorExposure_2018-01-11.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-01-11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01128644988916765</v>
+        <v>-0.007492297103131041</v>
       </c>
       <c r="C2">
-        <v>0.005708421740816471</v>
+        <v>-0.03097999755946228</v>
       </c>
       <c r="D2">
-        <v>0.02371907899543633</v>
+        <v>0.02764242646472041</v>
       </c>
       <c r="E2">
-        <v>0.05642992226866284</v>
+        <v>-0.02277601741463241</v>
       </c>
       <c r="F2">
-        <v>-0.0415648812294176</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.03847276647017155</v>
+      </c>
+      <c r="G2">
+        <v>0.004999081696537911</v>
+      </c>
+      <c r="H2">
+        <v>0.01750510927411362</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.06025519764297215</v>
+        <v>-0.05735422911480568</v>
       </c>
       <c r="C3">
-        <v>-0.003049728062347033</v>
+        <v>-0.08461454318443057</v>
       </c>
       <c r="D3">
-        <v>-0.02879954476461584</v>
+        <v>0.01297957654627027</v>
       </c>
       <c r="E3">
-        <v>0.2225679818565959</v>
+        <v>-0.07192989187128383</v>
       </c>
       <c r="F3">
-        <v>-0.1932701645433836</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.1061680152436967</v>
+      </c>
+      <c r="G3">
+        <v>0.05632281415744696</v>
+      </c>
+      <c r="H3">
+        <v>0.04127638716737617</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.03525645924402036</v>
+        <v>-0.04553695256269019</v>
       </c>
       <c r="C4">
-        <v>-0.01558596879023219</v>
+        <v>-0.05792385138350568</v>
       </c>
       <c r="D4">
-        <v>0.03017582136671065</v>
+        <v>0.0212651020625755</v>
       </c>
       <c r="E4">
-        <v>0.0169777558799605</v>
+        <v>-0.0003627238589037277</v>
       </c>
       <c r="F4">
-        <v>-0.05414201398549395</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.03391897723391028</v>
+      </c>
+      <c r="G4">
+        <v>0.03914392352373097</v>
+      </c>
+      <c r="H4">
+        <v>-0.01261886387592571</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.06196194617485919</v>
+        <v>-0.02899221505544943</v>
       </c>
       <c r="C6">
-        <v>-0.003767165992178373</v>
+        <v>-0.05735640816327344</v>
       </c>
       <c r="D6">
-        <v>0.04009787117286152</v>
+        <v>0.01521184700239618</v>
       </c>
       <c r="E6">
-        <v>0.01296601501302354</v>
+        <v>0.001855616773887898</v>
       </c>
       <c r="F6">
-        <v>-0.03276668227475969</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.01531525786220343</v>
+      </c>
+      <c r="G6">
+        <v>0.01892629074917649</v>
+      </c>
+      <c r="H6">
+        <v>-0.002060760467575155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02791568007491282</v>
+        <v>-0.01211759647675005</v>
       </c>
       <c r="C7">
-        <v>-0.06986512066043002</v>
+        <v>-0.03171543887997338</v>
       </c>
       <c r="D7">
-        <v>0.0009444534332057849</v>
+        <v>0.01216162328559724</v>
       </c>
       <c r="E7">
-        <v>0.00568746184071124</v>
+        <v>0.01640373808920497</v>
       </c>
       <c r="F7">
-        <v>-0.01406155863427331</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.0164443422136703</v>
+      </c>
+      <c r="G7">
+        <v>0.07171637638780179</v>
+      </c>
+      <c r="H7">
+        <v>0.02413648048197398</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.01667346624714421</v>
+        <v>0.00484148235504593</v>
       </c>
       <c r="C8">
-        <v>-0.0103111200313765</v>
+        <v>-0.004932761746990193</v>
       </c>
       <c r="D8">
-        <v>0.02219640237455547</v>
+        <v>0.001915844641094009</v>
       </c>
       <c r="E8">
-        <v>0.01451709424079347</v>
+        <v>-0.007301412213826753</v>
       </c>
       <c r="F8">
-        <v>-0.0500245443321155</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.02557742719923692</v>
+      </c>
+      <c r="G8">
+        <v>0.02359408426669633</v>
+      </c>
+      <c r="H8">
+        <v>-0.01131884156678196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.02702345685948934</v>
+        <v>-0.02346172572404681</v>
       </c>
       <c r="C9">
-        <v>-0.01261808531900412</v>
+        <v>-0.03991762467682213</v>
       </c>
       <c r="D9">
-        <v>0.02450729071505414</v>
+        <v>0.01479427083613936</v>
       </c>
       <c r="E9">
-        <v>0.04126519693145812</v>
+        <v>0.0009900955096548167</v>
       </c>
       <c r="F9">
-        <v>-0.0418547880403673</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.02568613650998054</v>
+      </c>
+      <c r="G9">
+        <v>0.02785299042477947</v>
+      </c>
+      <c r="H9">
+        <v>0.01169529122429443</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.0508344531574447</v>
+        <v>-0.1010034104674095</v>
       </c>
       <c r="C10">
-        <v>0.01469689082173584</v>
+        <v>0.1767547834726154</v>
       </c>
       <c r="D10">
-        <v>-0.1659329695103461</v>
+        <v>-0.02134815910362841</v>
       </c>
       <c r="E10">
-        <v>0.04640642531889334</v>
+        <v>-0.01967088136553624</v>
       </c>
       <c r="F10">
-        <v>0.009473346049006785</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.0121398041404904</v>
+      </c>
+      <c r="G10">
+        <v>0.02799043373492016</v>
+      </c>
+      <c r="H10">
+        <v>0.03723669891866583</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.02811903265849746</v>
+        <v>-0.02923503832350386</v>
       </c>
       <c r="C11">
-        <v>0.002730309711624209</v>
+        <v>-0.05305006310695299</v>
       </c>
       <c r="D11">
-        <v>0.04131231253024759</v>
+        <v>0.0005144440549221627</v>
       </c>
       <c r="E11">
-        <v>0.004111733256323121</v>
+        <v>0.007354965478722074</v>
       </c>
       <c r="F11">
-        <v>-0.01872010445568717</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.03367493228228333</v>
+      </c>
+      <c r="G11">
+        <v>0.007356683519662223</v>
+      </c>
+      <c r="H11">
+        <v>0.005095703690058674</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.03586364617947482</v>
+        <v>-0.02927774825331992</v>
       </c>
       <c r="C12">
-        <v>-0.003477596545466079</v>
+        <v>-0.04654346103792188</v>
       </c>
       <c r="D12">
-        <v>0.03936630067821527</v>
+        <v>0.00486419742619321</v>
       </c>
       <c r="E12">
-        <v>-0.01186499106564048</v>
+        <v>0.01229883991897856</v>
       </c>
       <c r="F12">
-        <v>-0.003004705212852441</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.01252601757779165</v>
+      </c>
+      <c r="G12">
+        <v>0.0147592354128648</v>
+      </c>
+      <c r="H12">
+        <v>0.004835075778211349</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01570457646585214</v>
+        <v>-0.008964649632445434</v>
       </c>
       <c r="C13">
-        <v>0.001736124668518075</v>
+        <v>-0.02766888913783014</v>
       </c>
       <c r="D13">
-        <v>0.01497409752986961</v>
+        <v>0.02343334028560465</v>
       </c>
       <c r="E13">
-        <v>0.03431705050227898</v>
+        <v>-0.0154009461940785</v>
       </c>
       <c r="F13">
-        <v>-0.04993062171077169</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.04176804203684944</v>
+      </c>
+      <c r="G13">
+        <v>0.02158311198272214</v>
+      </c>
+      <c r="H13">
+        <v>0.000411452176412259</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01387710182473053</v>
+        <v>-0.003928481743719838</v>
       </c>
       <c r="C14">
-        <v>-0.0144641402413817</v>
+        <v>-0.020851816171637</v>
       </c>
       <c r="D14">
-        <v>0.009077368759048087</v>
+        <v>0.008013601578493698</v>
       </c>
       <c r="E14">
-        <v>0.01257469335230892</v>
+        <v>0.005844285101580619</v>
       </c>
       <c r="F14">
-        <v>-0.04353628941399355</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.01106331104685161</v>
+      </c>
+      <c r="G14">
+        <v>0.03287179531617948</v>
+      </c>
+      <c r="H14">
+        <v>-0.001512188380146317</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02619582670258727</v>
+        <v>-0.02513219430165106</v>
       </c>
       <c r="C16">
-        <v>-0.003321323881456036</v>
+        <v>-0.04040787286919143</v>
       </c>
       <c r="D16">
-        <v>0.04141732802505541</v>
+        <v>0.0002388538766128171</v>
       </c>
       <c r="E16">
-        <v>0.005942220038969324</v>
+        <v>0.004124942607921232</v>
       </c>
       <c r="F16">
-        <v>-0.02111075229354737</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.02164583256713813</v>
+      </c>
+      <c r="G16">
+        <v>0.01234151302053464</v>
+      </c>
+      <c r="H16">
+        <v>0.003372633795360562</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.02829042290161936</v>
+        <v>-0.02339265857758045</v>
       </c>
       <c r="C19">
-        <v>-0.0009175511205268733</v>
+        <v>-0.04873999405661437</v>
       </c>
       <c r="D19">
-        <v>0.03243515048897205</v>
+        <v>0.0137529454106558</v>
       </c>
       <c r="E19">
-        <v>0.02957437353449852</v>
+        <v>-0.02823267803836149</v>
       </c>
       <c r="F19">
-        <v>-0.08200101445783796</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.05516083753073948</v>
+      </c>
+      <c r="G19">
+        <v>0.03468416212671473</v>
+      </c>
+      <c r="H19">
+        <v>-0.00990390548595825</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.001006048210216783</v>
+        <v>-0.006299135092319123</v>
       </c>
       <c r="C20">
-        <v>-0.003890996078005039</v>
+        <v>-0.02737724231120334</v>
       </c>
       <c r="D20">
-        <v>0.00137909478237536</v>
+        <v>0.01216403755680042</v>
       </c>
       <c r="E20">
-        <v>0.02782193303231675</v>
+        <v>-0.0164283948352941</v>
       </c>
       <c r="F20">
-        <v>-0.0265666774055693</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.01921216544447424</v>
+      </c>
+      <c r="G20">
+        <v>0.02220103737574031</v>
+      </c>
+      <c r="H20">
+        <v>0.00180892380813053</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.03593496330857673</v>
+        <v>-0.00682687271068327</v>
       </c>
       <c r="C21">
-        <v>-0.02106290785526857</v>
+        <v>-0.0285563925777454</v>
       </c>
       <c r="D21">
-        <v>0.01583255227322998</v>
+        <v>0.01536581115524008</v>
       </c>
       <c r="E21">
-        <v>0.01751020657615014</v>
+        <v>-0.02178126975974564</v>
       </c>
       <c r="F21">
-        <v>-0.03458477148477331</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.03574507855206794</v>
+      </c>
+      <c r="G21">
+        <v>0.04297151248437814</v>
+      </c>
+      <c r="H21">
+        <v>0.01090411898929279</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02422896116796054</v>
+        <v>-0.02089193910183315</v>
       </c>
       <c r="C24">
-        <v>-0.0009173509549101659</v>
+        <v>-0.04364295829474747</v>
       </c>
       <c r="D24">
-        <v>0.03197144872417629</v>
+        <v>0.005339294591975922</v>
       </c>
       <c r="E24">
-        <v>0.004684205951062626</v>
+        <v>0.0100997048891571</v>
       </c>
       <c r="F24">
-        <v>-0.01563141067624998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.02721669215527554</v>
+      </c>
+      <c r="G24">
+        <v>0.008805238085260798</v>
+      </c>
+      <c r="H24">
+        <v>0.01006475288052425</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03706771533811708</v>
+        <v>-0.03751932080231273</v>
       </c>
       <c r="C25">
-        <v>0.0007193163547207271</v>
+        <v>-0.05255884105545812</v>
       </c>
       <c r="D25">
-        <v>0.03152626095548355</v>
+        <v>0.009261143465106338</v>
       </c>
       <c r="E25">
-        <v>0.0177481994076461</v>
+        <v>0.01677473864303582</v>
       </c>
       <c r="F25">
-        <v>-0.02631836265819353</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.02350847034461966</v>
+      </c>
+      <c r="G25">
+        <v>0.01722408136195706</v>
+      </c>
+      <c r="H25">
+        <v>0.001994166533411798</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.002810563820050393</v>
+        <v>-0.0009283926582988578</v>
       </c>
       <c r="C26">
-        <v>-0.009817169260057467</v>
+        <v>-0.003079847389569234</v>
       </c>
       <c r="D26">
-        <v>0.006844524423516588</v>
+        <v>0.0233427383474225</v>
       </c>
       <c r="E26">
-        <v>0.03199284410499167</v>
+        <v>-0.00343675562808255</v>
       </c>
       <c r="F26">
-        <v>-0.01603424857934279</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.01319297716889439</v>
+      </c>
+      <c r="G26">
+        <v>0.01905343704836096</v>
+      </c>
+      <c r="H26">
+        <v>0.005109589371969364</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.0009749601716996726</v>
+        <v>-0.0006719400966975154</v>
       </c>
       <c r="C27">
-        <v>-0.0005600990115157189</v>
+        <v>0.0007470493779959356</v>
       </c>
       <c r="D27">
-        <v>-0.004984232666030586</v>
+        <v>-0.000655374299480617</v>
       </c>
       <c r="E27">
-        <v>-0.009986285631334312</v>
+        <v>0.0001225515036768405</v>
       </c>
       <c r="F27">
-        <v>-0.01804810963686286</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.0004880227459529877</v>
+      </c>
+      <c r="G27">
+        <v>0.003888672052963072</v>
+      </c>
+      <c r="H27">
+        <v>-0.009151461789614167</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.08433972284253846</v>
+        <v>-0.1335367896201389</v>
       </c>
       <c r="C28">
-        <v>0.02300113852797345</v>
+        <v>0.2144511759115544</v>
       </c>
       <c r="D28">
-        <v>-0.239781925130449</v>
+        <v>-0.01360289048813115</v>
       </c>
       <c r="E28">
-        <v>0.05821563160104893</v>
+        <v>-0.01296437144747687</v>
       </c>
       <c r="F28">
-        <v>0.02362701729080006</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.01159011931288086</v>
+      </c>
+      <c r="G28">
+        <v>0.0429720619496011</v>
+      </c>
+      <c r="H28">
+        <v>0.03709984169949769</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.01387879522793526</v>
+        <v>-0.008411155108944685</v>
       </c>
       <c r="C29">
-        <v>-0.01097818458094788</v>
+        <v>-0.01695930928866946</v>
       </c>
       <c r="D29">
-        <v>0.008836791364840406</v>
+        <v>0.006857600846132292</v>
       </c>
       <c r="E29">
-        <v>0.009403852183318497</v>
+        <v>0.004438743459049418</v>
       </c>
       <c r="F29">
-        <v>-0.04731240119750869</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.006160401895739867</v>
+      </c>
+      <c r="G29">
+        <v>0.02821212240794588</v>
+      </c>
+      <c r="H29">
+        <v>-0.008474122389825674</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.04068499076913035</v>
+        <v>-0.03263201262711812</v>
       </c>
       <c r="C30">
-        <v>0.04744149386572703</v>
+        <v>-0.07608061679777887</v>
       </c>
       <c r="D30">
-        <v>0.06255093268734643</v>
+        <v>0.02640365079830788</v>
       </c>
       <c r="E30">
-        <v>0.04294523872378469</v>
+        <v>-0.0155484655624835</v>
       </c>
       <c r="F30">
-        <v>-0.07325580659328051</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.05238746991588122</v>
+      </c>
+      <c r="G30">
+        <v>-0.009170240224176687</v>
+      </c>
+      <c r="H30">
+        <v>-0.01866387776972931</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04819523604720241</v>
+        <v>-0.03639304791307005</v>
       </c>
       <c r="C31">
-        <v>-0.01074742603775848</v>
+        <v>-0.02108802740110851</v>
       </c>
       <c r="D31">
-        <v>0.01631175295272141</v>
+        <v>0.001664367538104234</v>
       </c>
       <c r="E31">
-        <v>-0.00436412489859592</v>
+        <v>0.0128279353042242</v>
       </c>
       <c r="F31">
-        <v>-0.02973471249934963</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.01878983918856976</v>
+      </c>
+      <c r="G31">
+        <v>0.02326339226118898</v>
+      </c>
+      <c r="H31">
+        <v>0.003048159382966636</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.0003616053787907864</v>
+        <v>-0.0005697981016373404</v>
       </c>
       <c r="C32">
-        <v>-0.02915619029558656</v>
+        <v>-0.02795214555272328</v>
       </c>
       <c r="D32">
-        <v>0.02675619944847291</v>
+        <v>-0.005787537595254848</v>
       </c>
       <c r="E32">
-        <v>-0.002943435060342099</v>
+        <v>-0.009636480770684212</v>
       </c>
       <c r="F32">
-        <v>-0.06235606027936361</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.08967480604504756</v>
+      </c>
+      <c r="G32">
+        <v>0.04801156750695604</v>
+      </c>
+      <c r="H32">
+        <v>-0.02445647360566008</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.03067265892079688</v>
+        <v>-0.0236576546371287</v>
       </c>
       <c r="C33">
-        <v>0.02026651222121613</v>
+        <v>-0.04908714660393629</v>
       </c>
       <c r="D33">
-        <v>0.03249457640752178</v>
+        <v>0.01315672827336959</v>
       </c>
       <c r="E33">
-        <v>0.03965583673165642</v>
+        <v>-0.01313222197615518</v>
       </c>
       <c r="F33">
-        <v>-0.03477341961372681</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.03214555206880843</v>
+      </c>
+      <c r="G33">
+        <v>0.01026750402384807</v>
+      </c>
+      <c r="H33">
+        <v>0.01819860618064717</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.02696900644370493</v>
+        <v>-0.03834542832046133</v>
       </c>
       <c r="C34">
-        <v>-0.01111873424532159</v>
+        <v>-0.05460370123320633</v>
       </c>
       <c r="D34">
-        <v>0.04173206902949763</v>
+        <v>-0.006794683391138209</v>
       </c>
       <c r="E34">
-        <v>0.003779645406631798</v>
+        <v>0.01744789421226146</v>
       </c>
       <c r="F34">
-        <v>-0.02537829453754525</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.02975240262417641</v>
+      </c>
+      <c r="G34">
+        <v>0.02116076102768335</v>
+      </c>
+      <c r="H34">
+        <v>0.006365205498731651</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.0113799883177054</v>
+        <v>-0.008766912391776358</v>
       </c>
       <c r="C36">
-        <v>-0.005373459033159155</v>
+        <v>-1.672697731201265e-05</v>
       </c>
       <c r="D36">
-        <v>-6.531464758611156e-05</v>
+        <v>0.0101852755579261</v>
       </c>
       <c r="E36">
-        <v>0.009216091514490703</v>
+        <v>0.0006216198601909026</v>
       </c>
       <c r="F36">
-        <v>-0.02379124392814843</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.007558714510227833</v>
+      </c>
+      <c r="G36">
+        <v>0.01411376621120733</v>
+      </c>
+      <c r="H36">
+        <v>0.005939670884040061</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.01988060584747639</v>
+        <v>-0.02623535583875689</v>
       </c>
       <c r="C38">
-        <v>0.003777344848743924</v>
+        <v>-0.01889442011873962</v>
       </c>
       <c r="D38">
-        <v>0.00725597886646378</v>
+        <v>-0.008714897815127983</v>
       </c>
       <c r="E38">
-        <v>0.03701527382409493</v>
+        <v>0.003501206838879838</v>
       </c>
       <c r="F38">
-        <v>-0.04126885254240287</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.01308540555107242</v>
+      </c>
+      <c r="G38">
+        <v>0.01882425699594626</v>
+      </c>
+      <c r="H38">
+        <v>0.002626328723188615</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.01907679269302658</v>
+        <v>-0.02020735307218034</v>
       </c>
       <c r="C39">
-        <v>-0.009448017114390054</v>
+        <v>-0.08340127758894618</v>
       </c>
       <c r="D39">
-        <v>0.06561544745464877</v>
+        <v>0.01118789029706842</v>
       </c>
       <c r="E39">
-        <v>0.02277665801765771</v>
+        <v>-0.001923448844057793</v>
       </c>
       <c r="F39">
-        <v>-0.05167057338386711</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.05001358256335721</v>
+      </c>
+      <c r="G39">
+        <v>0.01065472330742305</v>
+      </c>
+      <c r="H39">
+        <v>0.01103111106869083</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.02679876575341505</v>
+        <v>-0.01735209804478633</v>
       </c>
       <c r="C40">
-        <v>0.0008139102339884698</v>
+        <v>-0.02639916139481559</v>
       </c>
       <c r="D40">
-        <v>0.0416586835248126</v>
+        <v>0.01176863532011444</v>
       </c>
       <c r="E40">
-        <v>0.02128105170086675</v>
+        <v>-0.006472547862055</v>
       </c>
       <c r="F40">
-        <v>-0.01211702501953025</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.03224104785799575</v>
+      </c>
+      <c r="G40">
+        <v>0.01059873294701692</v>
+      </c>
+      <c r="H40">
+        <v>0.01467675666218306</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.009308477501860294</v>
+        <v>-0.01083185131189326</v>
       </c>
       <c r="C41">
-        <v>0.001533046211885493</v>
+        <v>0.007652210207924265</v>
       </c>
       <c r="D41">
-        <v>-0.01067532890442457</v>
+        <v>0.002520189635600606</v>
       </c>
       <c r="E41">
-        <v>0.01007080975278552</v>
+        <v>0.007215636401957465</v>
       </c>
       <c r="F41">
-        <v>-0.004557076909781675</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.003472829903197171</v>
+      </c>
+      <c r="G41">
+        <v>0.006638059295998509</v>
+      </c>
+      <c r="H41">
+        <v>0.005927344519344764</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1957427253127705</v>
+        <v>-0.04231868917948304</v>
       </c>
       <c r="C42">
-        <v>0.1453016348571413</v>
+        <v>-0.08718240653657484</v>
       </c>
       <c r="D42">
-        <v>0.1787300354642552</v>
+        <v>0.116117732264119</v>
       </c>
       <c r="E42">
-        <v>0.4972238429858594</v>
+        <v>-0.09718221894836376</v>
       </c>
       <c r="F42">
-        <v>0.7646451569676048</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>-0.247788200171695</v>
+      </c>
+      <c r="G42">
+        <v>-0.3950340236157012</v>
+      </c>
+      <c r="H42">
+        <v>0.8490573965588687</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.01386000582065713</v>
+        <v>-0.02346426520309159</v>
       </c>
       <c r="C43">
-        <v>0.004303502910529791</v>
+        <v>-0.0004321728668278685</v>
       </c>
       <c r="D43">
-        <v>-0.009745576686012586</v>
+        <v>0.002336647700204671</v>
       </c>
       <c r="E43">
-        <v>0.01466775596107039</v>
+        <v>0.004061286431992201</v>
       </c>
       <c r="F43">
-        <v>-0.0105750426631254</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.01160403604124373</v>
+      </c>
+      <c r="G43">
+        <v>0.007750243393756732</v>
+      </c>
+      <c r="H43">
+        <v>0.009195038171787094</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.006999827798317255</v>
+        <v>-0.01057518632872159</v>
       </c>
       <c r="C44">
-        <v>-0.01189345253888187</v>
+        <v>-0.04730649697415027</v>
       </c>
       <c r="D44">
-        <v>0.01711390175290677</v>
+        <v>0.006302623067407948</v>
       </c>
       <c r="E44">
-        <v>0.05259147250649422</v>
+        <v>-0.01254464222510798</v>
       </c>
       <c r="F44">
-        <v>-0.05682015158774333</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.03473418736209577</v>
+      </c>
+      <c r="G44">
+        <v>0.0257624986331169</v>
+      </c>
+      <c r="H44">
+        <v>0.02247293029172518</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01193962718098168</v>
+        <v>0.002226617968170238</v>
       </c>
       <c r="C46">
-        <v>-0.003486224474747381</v>
+        <v>-0.01190956666036121</v>
       </c>
       <c r="D46">
-        <v>0.03728909781403432</v>
+        <v>0.01133667053815433</v>
       </c>
       <c r="E46">
-        <v>0.02669516108572339</v>
+        <v>0.003692238150301911</v>
       </c>
       <c r="F46">
-        <v>-0.06829814614772206</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.003409680094030845</v>
+      </c>
+      <c r="G46">
+        <v>0.01940969057314259</v>
+      </c>
+      <c r="H46">
+        <v>-0.005620386034439077</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.07406711809168574</v>
+        <v>-0.06149814157761158</v>
       </c>
       <c r="C47">
-        <v>0.005670115926041224</v>
+        <v>-0.05404231535939844</v>
       </c>
       <c r="D47">
-        <v>0.02033572358219945</v>
+        <v>-0.006013788784401747</v>
       </c>
       <c r="E47">
-        <v>-0.02919465222511006</v>
+        <v>0.01409128358527142</v>
       </c>
       <c r="F47">
-        <v>-0.002190713688206748</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.0503747480390062</v>
+      </c>
+      <c r="G47">
+        <v>0.01768017929726606</v>
+      </c>
+      <c r="H47">
+        <v>-0.004541153233893826</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.02179689112648609</v>
+        <v>-0.0124522604879287</v>
       </c>
       <c r="C48">
-        <v>-0.003857766081695693</v>
+        <v>-0.006646468094799909</v>
       </c>
       <c r="D48">
-        <v>0.006157304302771544</v>
+        <v>0.0002886074169488333</v>
       </c>
       <c r="E48">
-        <v>0.01029077608564706</v>
+        <v>0.006076135325525814</v>
       </c>
       <c r="F48">
-        <v>-0.02183991873732703</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.008815149450936793</v>
+      </c>
+      <c r="G48">
+        <v>0.01678037869762772</v>
+      </c>
+      <c r="H48">
+        <v>0.001982330513730756</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.0806021755904119</v>
+        <v>-0.06599809139777793</v>
       </c>
       <c r="C50">
-        <v>-0.02293453905294354</v>
+        <v>-0.05493547735044442</v>
       </c>
       <c r="D50">
-        <v>0.04067825496615101</v>
+        <v>-0.004750856271363409</v>
       </c>
       <c r="E50">
-        <v>-0.0007182810822932975</v>
+        <v>0.01249758517043921</v>
       </c>
       <c r="F50">
-        <v>-0.0207731402953678</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.04200390232520269</v>
+      </c>
+      <c r="G50">
+        <v>0.04360867054688752</v>
+      </c>
+      <c r="H50">
+        <v>0.006873522522706946</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.009595470618230559</v>
+        <v>-0.01066761761142811</v>
       </c>
       <c r="C51">
-        <v>-0.006740161917272585</v>
+        <v>-0.02308269158176824</v>
       </c>
       <c r="D51">
-        <v>-0.0165741262595091</v>
+        <v>0.008201541486302436</v>
       </c>
       <c r="E51">
-        <v>0.05161463490890851</v>
+        <v>-0.001477732871476905</v>
       </c>
       <c r="F51">
-        <v>-0.05854239698160605</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.04496788630122341</v>
+      </c>
+      <c r="G51">
+        <v>0.03006661688621192</v>
+      </c>
+      <c r="H51">
+        <v>0.01930028108455332</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1056172367765559</v>
+        <v>-0.08628100309256657</v>
       </c>
       <c r="C53">
-        <v>-0.005726843967164014</v>
+        <v>-0.07953610695614202</v>
       </c>
       <c r="D53">
-        <v>0.04905931346201805</v>
+        <v>-0.006437226013739865</v>
       </c>
       <c r="E53">
-        <v>-0.05217263480125912</v>
+        <v>0.03837947879512348</v>
       </c>
       <c r="F53">
-        <v>0.004131145060939454</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.06416018077197756</v>
+      </c>
+      <c r="G53">
+        <v>0.01934919800895174</v>
+      </c>
+      <c r="H53">
+        <v>0.00108874910510094</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02478940467485832</v>
+        <v>-0.02518932802355542</v>
       </c>
       <c r="C54">
-        <v>-0.007646743275598162</v>
+        <v>0.0004387850142756697</v>
       </c>
       <c r="D54">
-        <v>0.000761420211590672</v>
+        <v>-0.005262922391482123</v>
       </c>
       <c r="E54">
-        <v>-0.004646298979927845</v>
+        <v>-0.0005248106913044859</v>
       </c>
       <c r="F54">
-        <v>-0.03452543763448754</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.00708256741172095</v>
+      </c>
+      <c r="G54">
+        <v>0.02539391171004884</v>
+      </c>
+      <c r="H54">
+        <v>-0.001940220791784307</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.07784970854334296</v>
+        <v>-0.06269268159749748</v>
       </c>
       <c r="C55">
-        <v>-0.0002665017442038255</v>
+        <v>-0.06879679225859327</v>
       </c>
       <c r="D55">
-        <v>0.06359889114944652</v>
+        <v>-0.005328302800968224</v>
       </c>
       <c r="E55">
-        <v>-0.03015946070602897</v>
+        <v>0.0281604180489217</v>
       </c>
       <c r="F55">
-        <v>0.006581939339221767</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.05927897944421477</v>
+      </c>
+      <c r="G55">
+        <v>0.008953861620961748</v>
+      </c>
+      <c r="H55">
+        <v>-0.00416642596094137</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1461140141095236</v>
+        <v>-0.1304149267887661</v>
       </c>
       <c r="C56">
-        <v>0.003859996211049442</v>
+        <v>-0.1078604991406989</v>
       </c>
       <c r="D56">
-        <v>0.06991058404226301</v>
+        <v>-0.0148405972496445</v>
       </c>
       <c r="E56">
-        <v>-0.07906762821252168</v>
+        <v>0.03885912378393207</v>
       </c>
       <c r="F56">
-        <v>0.0295822098469771</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.1057667660791381</v>
+      </c>
+      <c r="G56">
+        <v>0.0001045541509794284</v>
+      </c>
+      <c r="H56">
+        <v>-0.01733099726696379</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.03422143887247114</v>
+        <v>-0.01471863111956666</v>
       </c>
       <c r="C57">
-        <v>0.008961071449515032</v>
+        <v>-0.01447780387456943</v>
       </c>
       <c r="D57">
-        <v>0.01500346120035258</v>
+        <v>0.02382616224984183</v>
       </c>
       <c r="E57">
-        <v>0.05124532708698213</v>
+        <v>-0.03181629945560638</v>
       </c>
       <c r="F57">
-        <v>-0.02143364993082344</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.02464574767989857</v>
+      </c>
+      <c r="G57">
+        <v>0.02261706423167769</v>
+      </c>
+      <c r="H57">
+        <v>0.009030507400227801</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1785140226697024</v>
+        <v>-0.07076612569253031</v>
       </c>
       <c r="C58">
-        <v>0.1312159511257971</v>
+        <v>-0.1021219583898634</v>
       </c>
       <c r="D58">
-        <v>0.1594671598659319</v>
+        <v>0.0208408599596471</v>
       </c>
       <c r="E58">
-        <v>0.5287776304271876</v>
+        <v>-0.9559286076789297</v>
       </c>
       <c r="F58">
-        <v>-0.4401812547271553</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.1377922720324112</v>
+      </c>
+      <c r="G58">
+        <v>0.0970473278891682</v>
+      </c>
+      <c r="H58">
+        <v>-0.1182458002660157</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.08511020830482184</v>
+        <v>-0.1689878350729361</v>
       </c>
       <c r="C59">
-        <v>0.04239370615561362</v>
+        <v>0.2031462041715932</v>
       </c>
       <c r="D59">
-        <v>-0.1996883083329281</v>
+        <v>-0.02143285445555273</v>
       </c>
       <c r="E59">
-        <v>0.05629771361232764</v>
+        <v>-0.01566539055713759</v>
       </c>
       <c r="F59">
-        <v>-0.02600567538061838</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.0130204144799969</v>
+      </c>
+      <c r="G59">
+        <v>0.01986766290248626</v>
+      </c>
+      <c r="H59">
+        <v>0.01211102194840294</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1966386420632584</v>
+        <v>-0.298924175792335</v>
       </c>
       <c r="C60">
-        <v>0.04837066328132397</v>
+        <v>-0.1026125820198956</v>
       </c>
       <c r="D60">
-        <v>-0.0292296032469716</v>
+        <v>-0.0006043167022517407</v>
       </c>
       <c r="E60">
-        <v>0.1013665692300537</v>
+        <v>0.01892363999337677</v>
       </c>
       <c r="F60">
-        <v>-0.07115168460308538</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.3707960133307371</v>
+      </c>
+      <c r="G60">
+        <v>-0.06599016357286977</v>
+      </c>
+      <c r="H60">
+        <v>0.01205466170768577</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02961728767117341</v>
+        <v>-0.02483466467508851</v>
       </c>
       <c r="C61">
-        <v>-0.003682491828691431</v>
+        <v>-0.06463968637851007</v>
       </c>
       <c r="D61">
-        <v>0.05130977220663754</v>
+        <v>0.00428081973907567</v>
       </c>
       <c r="E61">
-        <v>0.0109051960369274</v>
+        <v>0.002502986008558904</v>
       </c>
       <c r="F61">
-        <v>-0.02998658542595982</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.03545601450148298</v>
+      </c>
+      <c r="G61">
+        <v>0.01425096933865265</v>
+      </c>
+      <c r="H61">
+        <v>0.001768528744482848</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01365688780313211</v>
+        <v>-0.01005295585904811</v>
       </c>
       <c r="C63">
-        <v>-0.007324712979152458</v>
+        <v>-0.02933333243880824</v>
       </c>
       <c r="D63">
-        <v>0.02418947838575287</v>
+        <v>0.007540565447683963</v>
       </c>
       <c r="E63">
-        <v>0.004464059844305614</v>
+        <v>0.01461607231135016</v>
       </c>
       <c r="F63">
-        <v>-0.009672261585957678</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.0001872346781504762</v>
+      </c>
+      <c r="G63">
+        <v>0.02137624066336117</v>
+      </c>
+      <c r="H63">
+        <v>-0.001456123015290873</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.04762252613691827</v>
+        <v>-0.04389127967079232</v>
       </c>
       <c r="C64">
-        <v>-0.001135975254090413</v>
+        <v>-0.03900246695855901</v>
       </c>
       <c r="D64">
-        <v>0.03039247786864858</v>
+        <v>0.00327639086960941</v>
       </c>
       <c r="E64">
-        <v>0.006231779860271519</v>
+        <v>0.0188808798354648</v>
       </c>
       <c r="F64">
-        <v>-0.02379711646051421</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.01436116516577266</v>
+      </c>
+      <c r="G64">
+        <v>0.007220446860286383</v>
+      </c>
+      <c r="H64">
+        <v>0.02349249810709838</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.06900106310009292</v>
+        <v>-0.07654895149753141</v>
       </c>
       <c r="C65">
-        <v>-0.003822367103038423</v>
+        <v>-0.08067533973221909</v>
       </c>
       <c r="D65">
-        <v>0.04259090447594167</v>
+        <v>0.01372057063313609</v>
       </c>
       <c r="E65">
-        <v>0.007455010697289404</v>
+        <v>0.01098317293203744</v>
       </c>
       <c r="F65">
-        <v>-0.02991576577796266</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.03439377791331567</v>
+      </c>
+      <c r="G65">
+        <v>0.0112202035315152</v>
+      </c>
+      <c r="H65">
+        <v>-0.01269087201528206</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.04407758949991256</v>
+        <v>-0.03994869094451738</v>
       </c>
       <c r="C66">
-        <v>0.008789599035579739</v>
+        <v>-0.1222724467862836</v>
       </c>
       <c r="D66">
-        <v>0.07430138581501179</v>
+        <v>0.01011451614816034</v>
       </c>
       <c r="E66">
-        <v>-0.008666552014564781</v>
+        <v>-0.001645294140147636</v>
       </c>
       <c r="F66">
-        <v>-0.07262762613942737</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.06046959171142103</v>
+      </c>
+      <c r="G66">
+        <v>0.006735404846398875</v>
+      </c>
+      <c r="H66">
+        <v>-0.01571862832139131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.03578154809680265</v>
+        <v>-0.05089174821781378</v>
       </c>
       <c r="C67">
-        <v>0.007805163446759742</v>
+        <v>-0.02534730349152341</v>
       </c>
       <c r="D67">
-        <v>0.002520589311153708</v>
+        <v>-0.007517812343818512</v>
       </c>
       <c r="E67">
-        <v>0.01919060602739069</v>
+        <v>0.008383708698288281</v>
       </c>
       <c r="F67">
-        <v>-0.03341270140299137</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.01224899811971854</v>
+      </c>
+      <c r="G67">
+        <v>0.01921193788922787</v>
+      </c>
+      <c r="H67">
+        <v>-0.003344913014064859</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.07987548280453895</v>
+        <v>-0.1492129643827454</v>
       </c>
       <c r="C68">
-        <v>0.04136447734483509</v>
+        <v>0.248087008047435</v>
       </c>
       <c r="D68">
-        <v>-0.2212961249780516</v>
+        <v>-0.002618199879475233</v>
       </c>
       <c r="E68">
-        <v>0.03424574583541368</v>
+        <v>-0.02076451090842088</v>
       </c>
       <c r="F68">
-        <v>0.004850719247864965</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.01670720027427343</v>
+      </c>
+      <c r="G68">
+        <v>0.01454966455035053</v>
+      </c>
+      <c r="H68">
+        <v>0.0257561876937692</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05644687178934747</v>
+        <v>-0.063559156275283</v>
       </c>
       <c r="C69">
-        <v>0.0043778615178917</v>
+        <v>-0.05140120715645183</v>
       </c>
       <c r="D69">
-        <v>0.03001837162990603</v>
+        <v>-0.0105574850615779</v>
       </c>
       <c r="E69">
-        <v>-0.02461595274886435</v>
+        <v>0.02925087076423349</v>
       </c>
       <c r="F69">
-        <v>-0.0167655213054597</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.02217935320144117</v>
+      </c>
+      <c r="G69">
+        <v>0.01365984519886065</v>
+      </c>
+      <c r="H69">
+        <v>-0.009066981374659881</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.07198085853193396</v>
+        <v>-0.1428072806910589</v>
       </c>
       <c r="C71">
-        <v>0.02736835896636319</v>
+        <v>0.2093689165683438</v>
       </c>
       <c r="D71">
-        <v>-0.2167111311855053</v>
+        <v>-0.01037068395341328</v>
       </c>
       <c r="E71">
-        <v>0.06817887740619473</v>
+        <v>-0.02761948637808815</v>
       </c>
       <c r="F71">
-        <v>0.03450055051587762</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.02407297181894688</v>
+      </c>
+      <c r="G71">
+        <v>0.0260088555076793</v>
+      </c>
+      <c r="H71">
+        <v>0.04249887069372351</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1244369992031915</v>
+        <v>-0.07727765324487701</v>
       </c>
       <c r="C72">
-        <v>0.004019276769501619</v>
+        <v>-0.08826490045973302</v>
       </c>
       <c r="D72">
-        <v>0.1085142160777196</v>
+        <v>-0.01138761932281256</v>
       </c>
       <c r="E72">
-        <v>0.010695044568513</v>
+        <v>0.0232535249499634</v>
       </c>
       <c r="F72">
-        <v>-0.1457107644325718</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.04188104683464423</v>
+      </c>
+      <c r="G72">
+        <v>0.001504423429114065</v>
+      </c>
+      <c r="H72">
+        <v>-0.02956360321139549</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2389687406574509</v>
+        <v>-0.3955683503211718</v>
       </c>
       <c r="C73">
-        <v>0.1073183988121066</v>
+        <v>-0.1514923478788923</v>
       </c>
       <c r="D73">
-        <v>0.0003811142414912156</v>
+        <v>0.005706505955375443</v>
       </c>
       <c r="E73">
-        <v>0.173874637794064</v>
+        <v>-0.02700481557241788</v>
       </c>
       <c r="F73">
-        <v>-0.06454311051708821</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.5076589942597552</v>
+      </c>
+      <c r="G73">
+        <v>-0.1151772633420097</v>
+      </c>
+      <c r="H73">
+        <v>0.07443526901454868</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1357597699269035</v>
+        <v>-0.1062854014215405</v>
       </c>
       <c r="C74">
-        <v>0.01062961580957016</v>
+        <v>-0.1169788564519112</v>
       </c>
       <c r="D74">
-        <v>0.06915373118833251</v>
+        <v>-0.01170355640854483</v>
       </c>
       <c r="E74">
-        <v>-0.0795382551478561</v>
+        <v>0.04027136915205855</v>
       </c>
       <c r="F74">
-        <v>0.01665424952329851</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.08074373965677822</v>
+      </c>
+      <c r="G74">
+        <v>0.01440970935127562</v>
+      </c>
+      <c r="H74">
+        <v>-0.007833923990005051</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2738452386854317</v>
+        <v>-0.239276924647252</v>
       </c>
       <c r="C75">
-        <v>0.03043299623874858</v>
+        <v>-0.1712068607642775</v>
       </c>
       <c r="D75">
-        <v>0.1000805853824905</v>
+        <v>-0.03158563640568569</v>
       </c>
       <c r="E75">
-        <v>-0.1587704985392472</v>
+        <v>0.05400574796964065</v>
       </c>
       <c r="F75">
-        <v>-0.001484652954067618</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.2244900187871772</v>
+      </c>
+      <c r="G75">
+        <v>-0.01144227932260794</v>
+      </c>
+      <c r="H75">
+        <v>-0.0585745688794982</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2722432322498618</v>
+        <v>-0.1465776458784459</v>
       </c>
       <c r="C76">
-        <v>0.01010557277177825</v>
+        <v>-0.139192300965873</v>
       </c>
       <c r="D76">
-        <v>0.1109404578642419</v>
+        <v>-0.02506592085276943</v>
       </c>
       <c r="E76">
-        <v>-0.2140928503551699</v>
+        <v>0.06616960718021112</v>
       </c>
       <c r="F76">
-        <v>0.03983699058483883</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.1692431183152628</v>
+      </c>
+      <c r="G76">
+        <v>0.01351568152192766</v>
+      </c>
+      <c r="H76">
+        <v>-0.03722730353506944</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.06837221881059084</v>
+        <v>-0.0483880679928092</v>
       </c>
       <c r="C77">
-        <v>0.00967159146795042</v>
+        <v>-0.06801762745233118</v>
       </c>
       <c r="D77">
-        <v>0.07347100657521356</v>
+        <v>0.01337026496241178</v>
       </c>
       <c r="E77">
-        <v>0.1224286170597809</v>
+        <v>-0.03367869296154707</v>
       </c>
       <c r="F77">
-        <v>0.0185878876256841</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.0049972583845661</v>
+      </c>
+      <c r="G77">
+        <v>0.01947548036557887</v>
+      </c>
+      <c r="H77">
+        <v>0.03605127921924604</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.03285564406933516</v>
+        <v>-0.03873096074169251</v>
       </c>
       <c r="C78">
-        <v>-0.007072899828802506</v>
+        <v>-0.05833173674418273</v>
       </c>
       <c r="D78">
-        <v>0.04900254635662162</v>
+        <v>0.004531414087569584</v>
       </c>
       <c r="E78">
-        <v>0.03998426866756355</v>
+        <v>-0.01203626715783588</v>
       </c>
       <c r="F78">
-        <v>-0.06516190033477369</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.05154401172779401</v>
+      </c>
+      <c r="G78">
+        <v>0.02168320165709004</v>
+      </c>
+      <c r="H78">
+        <v>-0.0002680231944412087</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,90 +2751,120 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.2397125441136181</v>
+        <v>-0.06322534600827172</v>
       </c>
       <c r="C80">
-        <v>-0.9389402485696876</v>
+        <v>-0.09293390021910965</v>
       </c>
       <c r="D80">
-        <v>-0.09819467584108874</v>
+        <v>0.01174606970524707</v>
       </c>
       <c r="E80">
-        <v>0.1427795405357809</v>
+        <v>0.07587162685896234</v>
       </c>
       <c r="F80">
-        <v>0.04792522405769276</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.0362016849838203</v>
+      </c>
+      <c r="G80">
+        <v>0.8700557689920938</v>
+      </c>
+      <c r="H80">
+        <v>0.3815684043374243</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.2150922998673823</v>
+        <v>-0.1441578600720984</v>
       </c>
       <c r="C81">
-        <v>0.01421328786687226</v>
+        <v>-0.1031413776173396</v>
       </c>
       <c r="D81">
-        <v>0.06899825878152779</v>
+        <v>-0.01914791461810507</v>
       </c>
       <c r="E81">
-        <v>-0.1314614987373398</v>
+        <v>0.03755977775228404</v>
       </c>
       <c r="F81">
-        <v>-0.03140242292206023</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.1462173984540781</v>
+      </c>
+      <c r="G81">
+        <v>0.01673996742403882</v>
+      </c>
+      <c r="H81">
+        <v>-0.02999762087007147</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.03005112410124218</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.02107524040956549</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.002430422607154102</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>0.01986300565069515</v>
       </c>
       <c r="F82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>0.007246802713292672</v>
+      </c>
+      <c r="G82">
+        <v>0.002190652661745817</v>
+      </c>
+      <c r="H82">
+        <v>-0.007794983718619796</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.03268061085359916</v>
+        <v>-0.02418801841897556</v>
       </c>
       <c r="C83">
-        <v>0.006860872530184027</v>
+        <v>-0.01817379622417805</v>
       </c>
       <c r="D83">
-        <v>0.004965572322492205</v>
+        <v>0.004524646963244411</v>
       </c>
       <c r="E83">
-        <v>0.0394146991705128</v>
+        <v>-0.02041199866227801</v>
       </c>
       <c r="F83">
-        <v>-0.03478399409030448</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.03167066818346227</v>
+      </c>
+      <c r="G83">
+        <v>0.02383609269658834</v>
+      </c>
+      <c r="H83">
+        <v>0.003658060342645608</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.258142758407123</v>
+        <v>-0.2300830741538582</v>
       </c>
       <c r="C85">
-        <v>0.03864693848520311</v>
+        <v>-0.1895197131362218</v>
       </c>
       <c r="D85">
-        <v>0.1146000812153073</v>
+        <v>-0.02067541653613988</v>
       </c>
       <c r="E85">
-        <v>-0.1862747060453127</v>
+        <v>0.09588767909836537</v>
       </c>
       <c r="F85">
-        <v>0.01579808008342647</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.2262118202985935</v>
+      </c>
+      <c r="G85">
+        <v>-0.05149064535501367</v>
+      </c>
+      <c r="H85">
+        <v>-0.0828579284566727</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.007454778527170111</v>
+        <v>-0.005644530270166156</v>
       </c>
       <c r="C86">
-        <v>-0.009470012166003228</v>
+        <v>-0.02861683443731563</v>
       </c>
       <c r="D86">
-        <v>0.0374478019915654</v>
+        <v>0.009451990034145454</v>
       </c>
       <c r="E86">
-        <v>0.04305800182558323</v>
+        <v>-0.01021747421766293</v>
       </c>
       <c r="F86">
-        <v>-0.05537638352445717</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.02678166461132165</v>
+      </c>
+      <c r="G86">
+        <v>0.03899685792565757</v>
+      </c>
+      <c r="H86">
+        <v>0.03924318999113074</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02722882837889573</v>
+        <v>-0.01144136994187428</v>
       </c>
       <c r="C87">
-        <v>-0.006663600674492529</v>
+        <v>-0.02438452756729785</v>
       </c>
       <c r="D87">
-        <v>0.02921481358756757</v>
+        <v>0.0107065704476202</v>
       </c>
       <c r="E87">
-        <v>0.08029083778363084</v>
+        <v>-0.07203783230215739</v>
       </c>
       <c r="F87">
-        <v>-0.07438872962412404</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.07921098663868228</v>
+      </c>
+      <c r="G87">
+        <v>0.0293269724233234</v>
+      </c>
+      <c r="H87">
+        <v>0.02865106394609211</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.04200740958690107</v>
+        <v>-0.07202452094484117</v>
       </c>
       <c r="C88">
-        <v>0.008348647824791078</v>
+        <v>-0.04062647263435912</v>
       </c>
       <c r="D88">
-        <v>-0.002683845243494496</v>
+        <v>0.01913912312526342</v>
       </c>
       <c r="E88">
-        <v>-0.003806436590745914</v>
+        <v>0.01574084341728348</v>
       </c>
       <c r="F88">
-        <v>0.003900116055584292</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.02224840256777684</v>
+      </c>
+      <c r="G88">
+        <v>0.01563074165009908</v>
+      </c>
+      <c r="H88">
+        <v>-0.01031772306352819</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1408991444315298</v>
+        <v>-0.2479034535399524</v>
       </c>
       <c r="C89">
-        <v>0.08038228192358839</v>
+        <v>0.3575527409855193</v>
       </c>
       <c r="D89">
-        <v>-0.3766899800647763</v>
+        <v>-0.01650142296843261</v>
       </c>
       <c r="E89">
-        <v>0.01597331813435158</v>
+        <v>-0.001313347332905409</v>
       </c>
       <c r="F89">
-        <v>-0.02985337557222745</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.02191614090915456</v>
+      </c>
+      <c r="G89">
+        <v>0.01900615086326573</v>
+      </c>
+      <c r="H89">
+        <v>0.004651807382755494</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.07608760283716615</v>
+        <v>-0.2036840387962692</v>
       </c>
       <c r="C90">
-        <v>0.0715389705150267</v>
+        <v>0.3262120093681085</v>
       </c>
       <c r="D90">
-        <v>-0.3395507145735144</v>
+        <v>-0.01723481262009013</v>
       </c>
       <c r="E90">
-        <v>-0.005242191679421255</v>
+        <v>-0.01108798013239833</v>
       </c>
       <c r="F90">
-        <v>0.02051192282558152</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.04455960047803662</v>
+      </c>
+      <c r="G90">
+        <v>-0.001072500302450739</v>
+      </c>
+      <c r="H90">
+        <v>0.004190298336589507</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.2958515078486308</v>
+        <v>-0.202575997112717</v>
       </c>
       <c r="C91">
-        <v>0.03774083462287631</v>
+        <v>-0.1384393502538217</v>
       </c>
       <c r="D91">
-        <v>0.1299998763711651</v>
+        <v>-0.02819653253645299</v>
       </c>
       <c r="E91">
-        <v>-0.218499133710486</v>
+        <v>0.07493795349192306</v>
       </c>
       <c r="F91">
-        <v>0.09207550082325743</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.2119770632910961</v>
+      </c>
+      <c r="G91">
+        <v>-0.005658433282499331</v>
+      </c>
+      <c r="H91">
+        <v>-0.04116625636724579</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.2163411475113828</v>
+        <v>-0.2317599829800616</v>
       </c>
       <c r="C92">
-        <v>0.08766540492060493</v>
+        <v>0.2521835398595124</v>
       </c>
       <c r="D92">
-        <v>-0.3812745983021186</v>
+        <v>-0.05933540175174011</v>
       </c>
       <c r="E92">
-        <v>-0.09011812502233198</v>
+        <v>-0.0176037220616478</v>
       </c>
       <c r="F92">
-        <v>-0.02776344499627929</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.1373172973178527</v>
+      </c>
+      <c r="G92">
+        <v>0.06040811626593661</v>
+      </c>
+      <c r="H92">
+        <v>-0.02486113692813039</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.1309703072832379</v>
+        <v>-0.2349943494524703</v>
       </c>
       <c r="C93">
-        <v>0.101147458927565</v>
+        <v>0.3169387355877253</v>
       </c>
       <c r="D93">
-        <v>-0.39415964606882</v>
+        <v>-0.02446192087808051</v>
       </c>
       <c r="E93">
-        <v>0.03196405451246436</v>
+        <v>-0.02313339014984584</v>
       </c>
       <c r="F93">
-        <v>0.06231077042304482</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.01808556495554466</v>
+      </c>
+      <c r="G93">
+        <v>-0.01178913081037836</v>
+      </c>
+      <c r="H93">
+        <v>0.03508202657732726</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.3297224325378849</v>
+        <v>-0.2609538588871774</v>
       </c>
       <c r="C94">
-        <v>0.07295046300664269</v>
+        <v>-0.1626241370022162</v>
       </c>
       <c r="D94">
-        <v>0.0862802620301997</v>
+        <v>-0.01628772715466396</v>
       </c>
       <c r="E94">
-        <v>-0.2255341365592239</v>
+        <v>0.08324353098239165</v>
       </c>
       <c r="F94">
-        <v>-0.03618561592391017</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.3445263907252876</v>
+      </c>
+      <c r="G94">
+        <v>-0.06816905997629827</v>
+      </c>
+      <c r="H94">
+        <v>-0.245607043403209</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.06509561923766025</v>
+        <v>-0.07415994727616683</v>
       </c>
       <c r="C95">
-        <v>0.07291819084702433</v>
+        <v>-0.1101329972206408</v>
       </c>
       <c r="D95">
-        <v>0.04016279529535248</v>
+        <v>-0.008152847747423956</v>
       </c>
       <c r="E95">
-        <v>-0.02614062570958316</v>
+        <v>-0.05523000728794798</v>
       </c>
       <c r="F95">
-        <v>-0.07153157137436301</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.1327688063064756</v>
+      </c>
+      <c r="G95">
+        <v>-0.06147600841021036</v>
+      </c>
+      <c r="H95">
+        <v>-0.01453149973060471</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1911638500169688</v>
+        <v>-0.2161368092668031</v>
       </c>
       <c r="C98">
-        <v>0.06665560274885708</v>
+        <v>-0.05791943298465353</v>
       </c>
       <c r="D98">
-        <v>-0.0372006497045319</v>
+        <v>-0.02375468529655881</v>
       </c>
       <c r="E98">
-        <v>0.162055462828625</v>
+        <v>-0.04618815930635248</v>
       </c>
       <c r="F98">
-        <v>-0.08988455242002891</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.2543580428491239</v>
+      </c>
+      <c r="G98">
+        <v>-0.05296006853247306</v>
+      </c>
+      <c r="H98">
+        <v>0.0726288919918148</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.004691288377657139</v>
+        <v>-0.003366648681003624</v>
       </c>
       <c r="C101">
-        <v>-0.00525113059297996</v>
+        <v>-0.01785922664708047</v>
       </c>
       <c r="D101">
-        <v>0.02997835374926381</v>
+        <v>0.007712672099075755</v>
       </c>
       <c r="E101">
-        <v>0.09779708133397079</v>
+        <v>-0.03110254634745583</v>
       </c>
       <c r="F101">
-        <v>-0.1783157148123036</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.007583028483376069</v>
+      </c>
+      <c r="G101">
+        <v>0.03820683049333577</v>
+      </c>
+      <c r="H101">
+        <v>-0.02780762613937683</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1457781662296288</v>
+        <v>-0.1177657232267558</v>
       </c>
       <c r="C102">
-        <v>0.01622256595398905</v>
+        <v>-0.08531410485121498</v>
       </c>
       <c r="D102">
-        <v>0.04688926926429506</v>
+        <v>-0.001718419209141131</v>
       </c>
       <c r="E102">
-        <v>-0.09836492452797861</v>
+        <v>0.04604786115587783</v>
       </c>
       <c r="F102">
-        <v>0.04142036143033637</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.07615661972825369</v>
+      </c>
+      <c r="G102">
+        <v>-0.01065366636082067</v>
+      </c>
+      <c r="H102">
+        <v>-0.01444851196107299</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.04076429352756223</v>
+        <v>-0.007535004885888999</v>
       </c>
       <c r="C103">
-        <v>-0.01385177773032365</v>
+        <v>-0.00782249586744478</v>
       </c>
       <c r="D103">
-        <v>0.01746810487797228</v>
+        <v>-1.615886499109404e-05</v>
       </c>
       <c r="E103">
-        <v>-0.01799048738676811</v>
+        <v>0.001424077469326412</v>
       </c>
       <c r="F103">
-        <v>-0.003155696896870101</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.01443531314246462</v>
+      </c>
+      <c r="G103">
+        <v>0.01574440997765088</v>
+      </c>
+      <c r="H103">
+        <v>0.004878009886362197</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.05946012982541882</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.05143549673596083</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.9837359353333734</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.04339588833780874</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.02167700264033893</v>
+      </c>
+      <c r="G104">
+        <v>0.02792506874582481</v>
+      </c>
+      <c r="H104">
+        <v>-0.1133223321404194</v>
       </c>
     </row>
   </sheetData>
